--- a/input_data/input_test.xlsx
+++ b/input_data/input_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>C6</t>
   </si>
@@ -34,9 +34,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>RealParameter</t>
   </si>
   <si>
@@ -83,6 +80,81 @@
   </si>
   <si>
     <t>0.2</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>Car el share</t>
+  </si>
+  <si>
+    <t>Car demand share</t>
+  </si>
+  <si>
+    <t>Fossile price adjustment</t>
+  </si>
+  <si>
+    <t>Biofuel price adjustment</t>
+  </si>
+  <si>
+    <t>Electricity price adjustment</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>.2</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>.5</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Input type</t>
+  </si>
+  <si>
+    <t>Parameter type</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>C62</t>
+  </si>
+  <si>
+    <t>ICE CO2 reduction ambition level</t>
+  </si>
+  <si>
+    <t>1. Beslutad politik,2 Mer ambitios politik</t>
   </si>
 </sst>
 </file>
@@ -401,10 +473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,30 +485,37 @@
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="4" max="5" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -448,31 +528,172 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -484,13 +705,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
+          <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -510,15 +731,15 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -526,7 +747,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -534,17 +755,17 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
